--- a/tut04/output_by_subject/CE319.xlsx
+++ b/tut04/output_by_subject/CE319.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,8 +461,1019 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1901CE03</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1901CE04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1901CE05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1901CE06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1901CE07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1901CE08</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1901CE09</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1901CE10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1901CE13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1901CE14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1901CE15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1901CE16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1901CE17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1901CE18</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1901CE19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1901CE20</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1901CE21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1901CE22</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1901CE25</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1901CE26</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1901CE27</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1901CE31</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1901CE32</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1901CE35</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1901CE37</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1901CE41</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1901CE42</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1901CE43</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1901CE45</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1901CE51</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1901CE52</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1901CE53</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1901CE54</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1901CE24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1901CE28</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1901CE29</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1901CE30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1901CE34</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1901CE36</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1901CE38</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1901CE39</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1901CE40</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1901CE48</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1901CE49</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1901CE50</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1901CE56</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CORE</t>
         </is>
       </c>
     </row>
